--- a/linear_least_square.xlsx
+++ b/linear_least_square.xlsx
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$92</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$92</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -122,14 +120,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
-    <numFmt numFmtId="186" formatCode="#,##0.00000_);[Red]\(#,##0.00000\)"/>
-    <numFmt numFmtId="187" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="188" formatCode="0.000000000000000000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0.00000_);[Red]\(#,##0.00000\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="184" formatCode="0.000000000000000000_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -747,6 +745,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +755,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -774,46 +772,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3266,7 +3264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3533,7 +3530,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3570,7 +3566,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3584,7 +3579,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3629,7 +3623,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3896,7 +3889,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3933,7 +3925,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3947,7 +3938,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3992,7 +3982,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4231,7 +4220,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4268,7 +4256,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4282,7 +4269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4327,7 +4313,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4504,7 +4489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4541,7 +4525,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4555,7 +4538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4600,7 +4582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4741,7 +4722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4778,7 +4758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4792,7 +4771,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6482,16 +6460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7001,8 +6979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7270,7 +7248,7 @@
         <v>40747742</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F26" si="7">F6+$G$2</f>
+        <f t="shared" ref="F7:F20" si="7">F6+$G$2</f>
         <v>18000000</v>
       </c>
       <c r="I7" s="14">
@@ -8044,31 +8022,31 @@
         <v>22</v>
       </c>
       <c r="J21" s="24">
-        <f>SUM(J10:J19)</f>
+        <f t="shared" ref="J21:P21" si="9">SUM(J10:J19)</f>
         <v>34</v>
       </c>
       <c r="K21" s="24">
-        <f>SUM(K10:K19)</f>
+        <f t="shared" si="9"/>
         <v>900000000</v>
       </c>
       <c r="L21" s="22">
-        <f>SUM(L10:L19)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M21" s="24">
-        <f>SUM(M10:M19)</f>
+        <f t="shared" si="9"/>
         <v>2511000000</v>
       </c>
       <c r="N21" s="24">
-        <f>SUM(N10:N19)</f>
+        <f t="shared" si="9"/>
         <v>-45000000</v>
       </c>
       <c r="O21" s="24">
-        <f>SUM(O10:O19)</f>
+        <f t="shared" si="9"/>
         <v>6885000000000000</v>
       </c>
       <c r="P21" s="24">
-        <f>SUM(P10:P19)</f>
+        <f t="shared" si="9"/>
         <v>3.078E+16</v>
       </c>
       <c r="Q21" s="23"/>
@@ -8808,7 +8786,7 @@
         <v>854801024</v>
       </c>
       <c r="D67" s="15">
-        <f t="shared" ref="D67:D92" si="9">ABS(B67-C67)</f>
+        <f t="shared" ref="D67:D92" si="10">ABS(B67-C67)</f>
         <v>7353583</v>
       </c>
     </row>
@@ -8823,7 +8801,7 @@
         <v>917701120</v>
       </c>
       <c r="D68" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20895431</v>
       </c>
     </row>
@@ -8838,7 +8816,7 @@
         <v>856175168</v>
       </c>
       <c r="D69" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60087414</v>
       </c>
     </row>
@@ -8853,7 +8831,7 @@
         <v>444286560</v>
       </c>
       <c r="D70" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14777293</v>
       </c>
     </row>
@@ -8868,7 +8846,7 @@
         <v>366733152</v>
       </c>
       <c r="D71" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44381542</v>
       </c>
     </row>
@@ -8883,7 +8861,7 @@
         <v>625525248</v>
       </c>
       <c r="D72" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>112776283</v>
       </c>
     </row>
@@ -8898,7 +8876,7 @@
         <v>737449472</v>
       </c>
       <c r="D73" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73444815</v>
       </c>
     </row>
@@ -8913,7 +8891,7 @@
         <v>738994240</v>
       </c>
       <c r="D74" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28788742</v>
       </c>
     </row>
@@ -8928,7 +8906,7 @@
         <v>750287424</v>
       </c>
       <c r="D75" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16912278</v>
       </c>
     </row>
@@ -8943,7 +8921,7 @@
         <v>766826176</v>
       </c>
       <c r="D76" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17374384</v>
       </c>
     </row>
@@ -8958,7 +8936,7 @@
         <v>445373376</v>
       </c>
       <c r="D77" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>67919804</v>
       </c>
     </row>
@@ -8973,7 +8951,7 @@
         <v>386963712</v>
       </c>
       <c r="D78" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52728853</v>
       </c>
     </row>
@@ -8988,7 +8966,7 @@
         <v>597492736</v>
       </c>
       <c r="D79" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>67887840</v>
       </c>
     </row>
@@ -9003,7 +8981,7 @@
         <v>687460864</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32133818</v>
       </c>
     </row>
@@ -9018,7 +8996,7 @@
         <v>712304768</v>
       </c>
       <c r="D81" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54685690</v>
       </c>
     </row>
@@ -9033,7 +9011,7 @@
         <v>733380096</v>
       </c>
       <c r="D82" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49307327</v>
       </c>
     </row>
@@ -9048,7 +9026,7 @@
         <v>719147072</v>
       </c>
       <c r="D83" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27471043</v>
       </c>
     </row>
@@ -9063,7 +9041,7 @@
         <v>453868480</v>
       </c>
       <c r="D84" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35237168</v>
       </c>
     </row>
@@ -9078,7 +9056,7 @@
         <v>357019552</v>
       </c>
       <c r="D85" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20966968</v>
       </c>
     </row>
@@ -9093,7 +9071,7 @@
         <v>540532224</v>
       </c>
       <c r="D86" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12588023</v>
       </c>
     </row>
@@ -9108,7 +9086,7 @@
         <v>653631168</v>
       </c>
       <c r="D87" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41180882</v>
       </c>
     </row>
@@ -9123,7 +9101,7 @@
         <v>700988480</v>
       </c>
       <c r="D88" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56919971</v>
       </c>
     </row>
@@ -9138,7 +9116,7 @@
         <v>689679936</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34677233</v>
       </c>
     </row>
@@ -9153,7 +9131,7 @@
         <v>695004352</v>
       </c>
       <c r="D90" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5118275</v>
       </c>
     </row>
@@ -9168,7 +9146,7 @@
         <v>416774592</v>
       </c>
       <c r="D91" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19241528</v>
       </c>
     </row>
@@ -9183,7 +9161,7 @@
         <v>368089536</v>
       </c>
       <c r="D92" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28281371</v>
       </c>
     </row>
